--- a/LF/TAS/Benin/bj_lf_tas2_1_sites_202006.xlsx
+++ b/LF/TAS/Benin/bj_lf_tas2_1_sites_202006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C661A6A5-F553-43D4-B0C2-045FABD8AD5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0064BE0F-3EEC-41DF-993B-C4FE393D6ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="101">
   <si>
     <t>form_title</t>
   </si>
@@ -224,12 +224,6 @@
     <t>regex(.,'^[0-9]{2}$')</t>
   </si>
   <si>
-    <t>The code must be a two-digit number between 9 and 1000</t>
-  </si>
-  <si>
-    <t>Le code doit être un nombre à deux chiffres entre 9 et 1000</t>
-  </si>
-  <si>
     <t>Sélectionner l'unité d'évaluation (UE)</t>
   </si>
   <si>
@@ -303,6 +297,42 @@
   </si>
   <si>
     <t>eu_list = ${c_eu_name}</t>
+  </si>
+  <si>
+    <t>The code must be a two-digit number between 9 and 100</t>
+  </si>
+  <si>
+    <t>Le code doit être un nombre à deux chiffres entre 9 et 100</t>
+  </si>
+  <si>
+    <t>The number of presents must not exceed the total of pupils</t>
+  </si>
+  <si>
+    <t>The number of absents must not exceed the total of pupils</t>
+  </si>
+  <si>
+    <t>Le nombre d'absents  ne doit pas dépasser le total d'élèves</t>
+  </si>
+  <si>
+    <t>Le nombre des présents ne doit pas dépasser le total d'élèves</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>p_ending_survey_note</t>
+  </si>
+  <si>
+    <t>You just entered a value that will end the survey</t>
+  </si>
+  <si>
+    <t>Vous vener de saisir une valeur qui mettra fin à l'enquête</t>
+  </si>
+  <si>
+    <t>${c_consent} = 'No'</t>
+  </si>
+  <si>
+    <t>${c_consent} = 'Yes'</t>
   </si>
 </sst>
 </file>
@@ -434,7 +464,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -521,6 +551,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -810,13 +843,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -913,10 +946,10 @@
         <v>63</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
@@ -932,14 +965,14 @@
         <v>45</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="14"/>
@@ -957,13 +990,13 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
@@ -982,7 +1015,7 @@
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -990,14 +1023,14 @@
         <v>46</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="9"/>
@@ -1018,14 +1051,14 @@
         <v>46</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="9"/>
@@ -1041,86 +1074,92 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" s="14"/>
       <c r="M8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
         <v>57</v>
@@ -1129,26 +1168,34 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
         <v>57</v>
@@ -1180,7 +1227,9 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="K11" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="s">
         <v>57</v>
@@ -1189,44 +1238,40 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>31</v>
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="21" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="F12" s="21"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="K12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
+      <c r="E13" s="21" t="s">
+        <v>41</v>
+      </c>
       <c r="F13" s="21"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1241,10 +1286,10 @@
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>34</v>
@@ -1262,6 +1307,30 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1308,13 +1377,13 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2" s="26"/>
     </row>
@@ -1323,13 +1392,13 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E3" s="26"/>
     </row>
@@ -1338,13 +1407,13 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4" s="26"/>
     </row>
@@ -1353,19 +1422,19 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>101</v>
@@ -1377,12 +1446,12 @@
         <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>102</v>
@@ -1394,12 +1463,12 @@
         <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8">
         <v>103</v>
@@ -1411,12 +1480,12 @@
         <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B9">
         <v>104</v>
@@ -1428,7 +1497,7 @@
         <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1473,7 +1542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1509,7 +1578,7 @@
         <v>20200601</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/LF/TAS/Benin/bj_lf_tas2_1_sites_202006.xlsx
+++ b/LF/TAS/Benin/bj_lf_tas2_1_sites_202006.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0064BE0F-3EEC-41DF-993B-C4FE393D6ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90E8456-714C-43B4-B688-1AFE65FA5CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="121">
   <si>
     <t>form_title</t>
   </si>
@@ -95,9 +95,6 @@
     <t>If you are the only recorder on your team, this may be called a "team ID". Recorder ID is the 2-digit code assigned to you or your team.</t>
   </si>
   <si>
-    <t>c_eu_code</t>
-  </si>
-  <si>
     <t>c_population</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>Entrer l'identifiant de l'enregistreur</t>
   </si>
   <si>
-    <t>Sélectionner le code de l'unité d'évaluation (UE)</t>
-  </si>
-  <si>
     <t>Prener vos coordonnées GPS :</t>
   </si>
   <si>
@@ -212,12 +206,6 @@
     <t>. &lt;= ${c_population}</t>
   </si>
   <si>
-    <t>bj_lf_tas2_1_sites_202006.</t>
-  </si>
-  <si>
-    <t>1. TAS2 FL Form Site</t>
-  </si>
-  <si>
     <t>Si vous êtes le seul enregistreur de votre équipe, cela peut être appelé un "identifiant d'équipe". L'identifiant de l'enregistreur est un code à 2 chiffres qui a été attribué à vous ou à votre équipe.</t>
   </si>
   <si>
@@ -230,9 +218,6 @@
     <t>Select the evaluation unit (EU)</t>
   </si>
   <si>
-    <t>Select the evaluation unit (EU) code</t>
-  </si>
-  <si>
     <t>French</t>
   </si>
   <si>
@@ -272,21 +257,12 @@
     <t>L'école (à travers le directeur et l'APE) consent-elle à participer à cette enquête ?</t>
   </si>
   <si>
-    <t>select_one eu_list_code</t>
-  </si>
-  <si>
-    <t>eu_list_code</t>
-  </si>
-  <si>
     <t>Allada</t>
   </si>
   <si>
     <t>Bonou</t>
   </si>
   <si>
-    <t>Adja-Ouèrè</t>
-  </si>
-  <si>
     <t>Agbangnizoun</t>
   </si>
   <si>
@@ -333,13 +309,97 @@
   </si>
   <si>
     <t>${c_consent} = 'Yes'</t>
+  </si>
+  <si>
+    <t>Parakou</t>
+  </si>
+  <si>
+    <t>Ouidah</t>
+  </si>
+  <si>
+    <t>Torri-Bossito</t>
+  </si>
+  <si>
+    <t>Zogbodomey</t>
+  </si>
+  <si>
+    <t>Kpomasse</t>
+  </si>
+  <si>
+    <t>commune_list</t>
+  </si>
+  <si>
+    <t>c_commune</t>
+  </si>
+  <si>
+    <t>Select the commune</t>
+  </si>
+  <si>
+    <t>Sélectionner la commune</t>
+  </si>
+  <si>
+    <t>select_one commune_list</t>
+  </si>
+  <si>
+    <t>c_cluster_name</t>
+  </si>
+  <si>
+    <t>Enter the school Name</t>
+  </si>
+  <si>
+    <t>Entrer le nom de l'école</t>
+  </si>
+  <si>
+    <t>c_cluster_id1</t>
+  </si>
+  <si>
+    <t>Entrer le code de l'école</t>
+  </si>
+  <si>
+    <t>. &gt; 99 and .&lt; 1000</t>
+  </si>
+  <si>
+    <t>The code must be a two-digit number between 99 and 1000</t>
+  </si>
+  <si>
+    <t>Le code doit être un nombre à deux chiffres entre 99 et 1000</t>
+  </si>
+  <si>
+    <t>bj_lf_tas2_1_sites_20200818</t>
+  </si>
+  <si>
+    <t>The three-digit code associated with each school</t>
+  </si>
+  <si>
+    <t>Le code a trois chiffre associé à chaque école</t>
+  </si>
+  <si>
+    <t>c_cluster_id2</t>
+  </si>
+  <si>
+    <t>. = ${c_cluster_id1}</t>
+  </si>
+  <si>
+    <t>The code must be the same</t>
+  </si>
+  <si>
+    <t>Le code répété doit être le même</t>
+  </si>
+  <si>
+    <t>Enter the cluster ID</t>
+  </si>
+  <si>
+    <t>Repeat the cluster ID</t>
+  </si>
+  <si>
+    <t>1. Benin - TAS2 FL Form Site (Août 2020)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -398,6 +458,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -464,7 +529,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -554,6 +619,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -843,36 +916,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.21875" customWidth="1"/>
+    <col min="3" max="3" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.25" customWidth="1"/>
     <col min="5" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="47.38671875" customWidth="1"/>
-    <col min="7" max="7" width="12.609375" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.375" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.5" customWidth="1"/>
-    <col min="11" max="11" width="20.38671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.609375" customWidth="1"/>
-    <col min="13" max="13" width="9.71875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.38671875" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" customWidth="1"/>
-    <col min="16" max="16" width="36.609375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.375" customWidth="1"/>
+    <col min="15" max="15" width="13.875" customWidth="1"/>
+    <col min="16" max="16" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -886,10 +959,10 @@
         <v>16</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>6</v>
@@ -901,7 +974,7 @@
         <v>17</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>8</v>
@@ -922,9 +995,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>18</v>
@@ -936,43 +1009,43 @@
         <v>20</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="14"/>
@@ -982,25 +1055,25 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="14"/>
@@ -1010,327 +1083,427 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>68</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="E6" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+        <v>55</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-    </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="8"/>
+        <v>92</v>
+      </c>
+      <c r="L11" s="14"/>
       <c r="M11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>97</v>
+        <v>55</v>
+      </c>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="21" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="F12" s="21"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="K12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M12" s="33"/>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="21" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="M13" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="K14" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="M14" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="K15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="33"/>
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+      <c r="C18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1340,22 +1513,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.38671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.71875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.71875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
@@ -1366,173 +1540,273 @@
         <v>15</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
+        <v>42</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>78</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+      <c r="E2" s="35"/>
+    </row>
+    <row r="3" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>77</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
+        <v>42</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="26"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
+        <v>42</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>76</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6">
-        <v>101</v>
-      </c>
-      <c r="C6" s="31">
-        <v>101</v>
-      </c>
-      <c r="D6" s="32">
-        <v>101</v>
-      </c>
-      <c r="E6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7">
-        <v>102</v>
-      </c>
-      <c r="C7" s="31">
-        <v>102</v>
-      </c>
-      <c r="D7" s="32">
-        <v>102</v>
-      </c>
-      <c r="E7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8">
-        <v>103</v>
-      </c>
-      <c r="C8" s="31">
-        <v>103</v>
-      </c>
-      <c r="D8" s="32">
-        <v>103</v>
-      </c>
-      <c r="E8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9">
-        <v>104</v>
-      </c>
-      <c r="C9" s="31">
-        <v>104</v>
-      </c>
-      <c r="D9" s="32">
-        <v>104</v>
-      </c>
-      <c r="E9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="30" t="s">
+      <c r="C17" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="D17" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="27"/>
+      <c r="E17" s="27"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:C60">
-    <sortCondition ref="B15:B60"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:C66">
+    <sortCondition ref="B21:B66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1542,18 +1816,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.38671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.125" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1567,18 +1841,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="C2">
-        <v>20200601</v>
+        <v>20200818</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/LF/TAS/Benin/bj_lf_tas2_1_sites_202006.xlsx
+++ b/LF/TAS/Benin/bj_lf_tas2_1_sites_202006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90E8456-714C-43B4-B688-1AFE65FA5CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1919ED89-2279-4521-AFF2-9634139D6690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -365,9 +365,6 @@
     <t>Le code doit être un nombre à deux chiffres entre 99 et 1000</t>
   </si>
   <si>
-    <t>bj_lf_tas2_1_sites_20200818</t>
-  </si>
-  <si>
     <t>The three-digit code associated with each school</t>
   </si>
   <si>
@@ -392,7 +389,10 @@
     <t>Repeat the cluster ID</t>
   </si>
   <si>
-    <t>1. Benin - TAS2 FL Form Site (Août 2020)</t>
+    <t>1. Benin - TAS2 FL Form Site (Août 2020) V2</t>
+  </si>
+  <si>
+    <t>bj_lf_tas2_1_sites_20200828</t>
   </si>
 </sst>
 </file>
@@ -925,27 +925,27 @@
       <selection pane="bottomRight" activeCell="H6" sqref="H6:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.25" customWidth="1"/>
+    <col min="3" max="3" width="42.609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.21875" customWidth="1"/>
     <col min="5" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="47.375" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.38671875" customWidth="1"/>
+    <col min="7" max="7" width="12.609375" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.5" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.375" customWidth="1"/>
-    <col min="15" max="15" width="13.875" customWidth="1"/>
-    <col min="16" max="16" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.38671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.609375" customWidth="1"/>
+    <col min="13" max="13" width="9.71875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.38671875" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" customWidth="1"/>
+    <col min="16" max="16" width="36.609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -995,7 +995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
         <v>40</v>
       </c>
@@ -1033,7 +1033,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
         <v>43</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="O3" s="14"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
         <v>102</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
         <v>44</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="O5" s="14"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
@@ -1127,16 +1127,16 @@
         <v>106</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>107</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="37" t="s">
@@ -1157,15 +1157,15 @@
       <c r="O6" s="14"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
@@ -1174,13 +1174,13 @@
       <c r="F7" s="11"/>
       <c r="G7" s="14"/>
       <c r="H7" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -1191,7 +1191,7 @@
       <c r="O7" s="14"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="13" t="s">
         <v>44</v>
       </c>
@@ -1219,7 +1219,7 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13" t="s">
         <v>44</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
         <v>50</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8" t="s">
         <v>40</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
         <v>40</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
@@ -1411,7 +1411,7 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>87</v>
       </c>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="M15" s="33"/>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8" t="s">
         <v>52</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8" t="s">
         <v>53</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8" t="s">
         <v>54</v>
       </c>
@@ -1520,16 +1520,16 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.38671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.71875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.71875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
         <v>42</v>
       </c>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>42</v>
       </c>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E3" s="35"/>
     </row>
-    <row r="4" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>42</v>
       </c>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E4" s="35"/>
     </row>
-    <row r="5" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>42</v>
       </c>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="E5" s="35"/>
     </row>
-    <row r="6" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>42</v>
       </c>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="E6" s="35"/>
     </row>
-    <row r="7" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>98</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>98</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>98</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>98</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>98</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>98</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>98</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>98</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>98</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="30" t="s">
         <v>45</v>
       </c>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="E16" s="27"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="30" t="s">
         <v>45</v>
       </c>
@@ -1817,17 +1817,17 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.38671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1841,15 +1841,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
         <v>120</v>
       </c>
-      <c r="B2" t="s">
-        <v>111</v>
-      </c>
       <c r="C2">
-        <v>20200818</v>
+        <v>20200828</v>
       </c>
       <c r="D2" t="s">
         <v>62</v>
